--- a/files/BasicInfo/contractList.xlsx
+++ b/files/BasicInfo/contractList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,107 +167,108 @@
     <t>AL1805.SHF</t>
   </si>
   <si>
+    <t>BU1805.SHF</t>
+  </si>
+  <si>
+    <t>C1805.DCE</t>
+  </si>
+  <si>
+    <t>CF805.CZC</t>
+  </si>
+  <si>
+    <t>CS1805.DCE</t>
+  </si>
+  <si>
+    <t>CU1805.SHF</t>
+  </si>
+  <si>
+    <t>FG805.CZC</t>
+  </si>
+  <si>
+    <t>HC1805.SHF</t>
+  </si>
+  <si>
+    <t>I1805.DCE</t>
+  </si>
+  <si>
+    <t>J1805.DCE</t>
+  </si>
+  <si>
+    <t>JD1805.DCE</t>
+  </si>
+  <si>
+    <t>JM1805.DCE</t>
+  </si>
+  <si>
+    <t>L1805.DCE</t>
+  </si>
+  <si>
+    <t>MA805.CZC</t>
+  </si>
+  <si>
+    <t>NI1805.SHF</t>
+  </si>
+  <si>
+    <t>OI805.CZC</t>
+  </si>
+  <si>
+    <t>P1805.DCE</t>
+  </si>
+  <si>
+    <t>PB1805.SHF</t>
+  </si>
+  <si>
+    <t>PP1805.DCE</t>
+  </si>
+  <si>
+    <t>RB1805.SHF</t>
+  </si>
+  <si>
+    <t>RM805.CZC</t>
+  </si>
+  <si>
+    <t>SM805.CZC</t>
+  </si>
+  <si>
+    <t>RU1805.SHF</t>
+  </si>
+  <si>
+    <t>SN1805.SHF</t>
+  </si>
+  <si>
+    <t>TA805.CZC</t>
+  </si>
+  <si>
+    <t>V1805.DCE</t>
+  </si>
+  <si>
+    <t>WH805.CZC</t>
+  </si>
+  <si>
+    <t>Y1805.DCE</t>
+  </si>
+  <si>
+    <t>ZC805.CZC</t>
+  </si>
+  <si>
+    <t>ZN1805.SHF</t>
+  </si>
+  <si>
+    <t>SR805.CZC</t>
+  </si>
+  <si>
+    <t>M1805.DCE</t>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AU1806.SHF</t>
-  </si>
-  <si>
-    <t>BU1805.SHF</t>
-  </si>
-  <si>
-    <t>C1805.DCE</t>
-  </si>
-  <si>
-    <t>CF805.CZC</t>
-  </si>
-  <si>
-    <t>CS1805.DCE</t>
-  </si>
-  <si>
-    <t>CU1805.SHF</t>
-  </si>
-  <si>
-    <t>FG805.CZC</t>
-  </si>
-  <si>
-    <t>HC1805.SHF</t>
-  </si>
-  <si>
-    <t>I1805.DCE</t>
-  </si>
-  <si>
-    <t>J1805.DCE</t>
-  </si>
-  <si>
-    <t>JD1805.DCE</t>
-  </si>
-  <si>
-    <t>JM1805.DCE</t>
-  </si>
-  <si>
-    <t>L1805.DCE</t>
-  </si>
-  <si>
-    <t>MA805.CZC</t>
-  </si>
-  <si>
-    <t>NI1805.SHF</t>
-  </si>
-  <si>
-    <t>OI805.CZC</t>
-  </si>
-  <si>
-    <t>P1805.DCE</t>
-  </si>
-  <si>
-    <t>PB1805.SHF</t>
-  </si>
-  <si>
-    <t>PP1805.DCE</t>
-  </si>
-  <si>
-    <t>RB1805.SHF</t>
-  </si>
-  <si>
-    <t>RM805.CZC</t>
-  </si>
-  <si>
-    <t>SM805.CZC</t>
-  </si>
-  <si>
-    <t>RU1805.SHF</t>
-  </si>
-  <si>
-    <t>SN1805.SHF</t>
-  </si>
-  <si>
-    <t>TA805.CZC</t>
-  </si>
-  <si>
-    <t>V1805.DCE</t>
-  </si>
-  <si>
-    <t>WH805.CZC</t>
-  </si>
-  <si>
-    <t>Y1805.DCE</t>
-  </si>
-  <si>
-    <t>ZC805.CZC</t>
-  </si>
-  <si>
-    <t>ZN1805.SHF</t>
-  </si>
-  <si>
-    <t>SR805.CZC</t>
-  </si>
-  <si>
-    <t>M1805.DCE</t>
-  </si>
-  <si>
-    <t>contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,23 +625,23 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
+    </row>
+    <row r="2" spans="1:2" ht="15.4">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -648,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15.4">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -656,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="15.4">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -664,257 +665,257 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="15.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="15.4">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="15.4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16">
+    <row r="8" spans="1:2" ht="15.4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16">
+    <row r="9" spans="1:2" ht="15.4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16">
+    <row r="10" spans="1:2" ht="15.4">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16">
+    <row r="11" spans="1:2" ht="15.4">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16">
+    <row r="12" spans="1:2" ht="15.4">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16">
+    <row r="13" spans="1:2" ht="15.4">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16">
+    <row r="14" spans="1:2" ht="15.4">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16">
+    <row r="15" spans="1:2" ht="15.4">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16">
+    <row r="16" spans="1:2" ht="15.4">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:2" ht="15.4">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16">
+    <row r="18" spans="1:2" ht="15.4">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16">
+    <row r="19" spans="1:2" ht="15.4">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16">
+    <row r="20" spans="1:2" ht="15.4">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16">
+    <row r="21" spans="1:2" ht="15.4">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16">
+    <row r="22" spans="1:2" ht="15.4">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16">
+    <row r="23" spans="1:2" ht="15.4">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16">
+    <row r="24" spans="1:2" ht="15.4">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:2" ht="15.4">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16">
+    <row r="26" spans="1:2" ht="15.4">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16">
+    <row r="27" spans="1:2" ht="15.4">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16">
+    <row r="28" spans="1:2" ht="15.4">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16">
+    <row r="29" spans="1:2" ht="15.4">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16">
+    <row r="30" spans="1:2" ht="15.4">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16">
+    <row r="31" spans="1:2" ht="15.4">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16">
+    <row r="32" spans="1:2" ht="15.4">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16">
+    <row r="33" spans="1:2" ht="15.4">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16">
+    <row r="34" spans="1:2" ht="15.4">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16">
+    <row r="35" spans="1:2" ht="15.4">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16">
+    <row r="36" spans="1:2" ht="15.4">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -933,7 +934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,7 +948,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/BasicInfo/contractList.xlsx
+++ b/files/BasicInfo/contractList.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28502"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bellejin/PycharmProjects/SwhyDataAnalytic/files/BasicInfo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="124519" calcMode="manual" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>黄大豆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,25 +282,41 @@
   </si>
   <si>
     <t>AU1806.SHF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchanges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,6 +363,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,12 +414,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -412,14 +446,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -446,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,304 +657,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.4">
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.4">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.4">
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.4">
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.4">
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.4">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.4">
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.4">
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.4">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.4">
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.4">
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.4">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.4">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.4">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.4">
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.4">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.4">
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.4">
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.4">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.4">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.4">
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.4">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.4">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.4">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.4">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.4">
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.4">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.4">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.4">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.4">
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.4">
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.4">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.4">
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.4">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.4">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -929,12 +1073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -943,12 +1087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
